--- a/testcasesHuly/resources/data.xlsx
+++ b/testcasesHuly/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="8000"/>
+    <workbookView windowWidth="18350" windowHeight="9950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>${testcase_title}</t>
   </si>
@@ -58,106 +58,770 @@
     <t>${testcase_description}</t>
   </si>
   <si>
-    <t>TC-001: To verify the allocation of Compensatory Leave from OT in the case of the first time in the year(2025).</t>
-  </si>
-  <si>
-    <t>Pre-condition
-- Existing OT(Current Period 2025) in Approved status and Request type = Compensatory Leave.
-Teststep Description
-HR
-1. Click Time Off menu
-2. Click Mass Leaves Allocation
-3. Click Allocate Compensatory Leave
-4. Click Add a line for select the employee
-5. Click Allocate Compensatory Leave
-Employee, OT requester
-6. Click ESS menu.
-7. Click Leave Request.
-8. Click New
-9. Verify Time Off Type * Compensatory leave
-Expected Result
-HR
-4. The system will show the list of employees with OT in Approved status and Request type = Compensatory Leave.
-5. The system will create a new Mass Leave Allocation named Compensatory Leave 2025.
-Employee, OT requester
-9. The total value of Compensatory Leave is updated depending on OT hours.</t>
-  </si>
-  <si>
-    <t>TC-002: To verify the allocation of Compensatory Leave from OT in the case of the second time onward in the year(2025).</t>
-  </si>
-  <si>
-    <t>Pre-condition
-- Existing OT(Current Period 2025) in Approved status and Request type = Compensatory Leave.
-- Need to continue from TC-001
-Teststep Description
-HR process in secon time continue from TC-001
-1. Click Time Off menu
-2. Click Mass Leaves Allocation
-3. Click Allocate Compensatory Leave
-4. Click Add a line for select the employee
-5. Click Allocate Compensatory Leave
-Employee, OT requester
-6. Click ESS menu.
-7. Click Leave Request.
-8. Click New
-9. Verify Time Off Type * Compensatory leave
-Expected Result
-HR
-4. The system will show the list of employees with OT in Approved status and Request type = Compensatory Leave.
-5. The system will not create a new Mass Leave Allocation. The system will add name into existing Mass Leave Allocation(Compensatory Leave 2025).
-Employee, OT requester
-9. The total value of Compensatory Leave is updated depending on OT hours.</t>
-  </si>
-  <si>
-    <t>TC-003: To verify the allocation of Compensatory Leave from OT in the case of the first time in the year(2026).</t>
-  </si>
-  <si>
-    <t>Pre-condition
-- Existing OT(Future Period 2026) in Approved status and Request type = Compensatory Leave.
-Teststep Description
-HR
-1. Click Time Off menu
-2. Click Mass Leaves Allocation
-3. Click Allocate Compensatory Leave
-4. Click Add a line for select the employee
-5. Click Allocate Compensatory Leave
-Employee, OT requester
-6. Click ESS menu.
-7. Click Leave Request.
-8. Click New
-9. Verify Time Off Type * Compensatory leave
-Expected Result
-HR
-4. The system will show the list of employees with OT in Approved status and Request type = Compensatory Leave.
-5. The system will create a new Mass Leave Allocation named Compensatory Leave 2025.
-Employee, OT requester
-9. The total value of Compensatory Leave is updated depending on OT hours.</t>
-  </si>
-  <si>
-    <t>TC-004: To verify the allocation of Compensatory Leave from OT in the case of the second time onward in the year(2026).</t>
-  </si>
-  <si>
-    <t>Pre-condition
-- Existing OT(Future Period 2026) in Approved status and Request type = Compensatory Leave.
-- Need to continue from TC-003
-Teststep Description
-HR process in secon time continue from TC-003
-1. Click Time Off menu
-2. Click Mass Leaves Allocation
-3. Click Allocate Compensatory Leave
-4. Click Add a line for select the employee
-5. Click Allocate Compensatory Leave
-Employee, OT requester
-6. Click ESS menu.
-7. Click Leave Request.
-8. Click New
-9. Verify Time Off Type * Compensatory leave
-Expected Result
-HR
-4. The system will show the list of employees with OT in Approved status and Request type = Compensatory Leave.
-5. The system will not create a new Mass Leave Allocation. The system will add name into existing Mass Leave Allocation(Compensatory Leave 2025).
-Employee, OT requester
-9. The total value of Compensatory Leave is updated depending on OT hours.</t>
+    <t>TC-001: To verify that the Minor Purchase screen is accessible.</t>
+  </si>
+  <si>
+    <t>Company: CASA
+Main scope
+- Minor Purchase
+Component
+Validate form
+Testing type
+-
+Pre-condition
+- Requester = CASA
+Teststep Description
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+Expected Result
+2. Able to access the Minor Purchase screen.</t>
+  </si>
+  <si>
+    <t>TC-002: To verify that the system is able to autofill the Req. Dept., Date, Applicant on the screen</t>
+  </si>
+  <si>
+    <t>Company: CASA
+Component
+Validate formTesting type
+-Pre-condition
+- Requester = CASA
+Teststep Description
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+Expected Result
+2. The system is able to autofill the Req. Dept., Applicant, and Source of Expenses based on the user profile.
+- Req.Dept
+- Date
+- Applicant</t>
+  </si>
+  <si>
+    <t>TC-003: To verify the error message when the requester does not enter any data after accessing the Minor Request screen.</t>
+  </si>
+  <si>
+    <t>Company: CASA
+Component
+Validate formTesting type
+-Pre-condition
+- Requester = CASA
+Teststep Description
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+3. Click Confirm Request
+Expected Result
+3. The system not allow for continue and should display an error message for mandatory field.
+- Project Name
+- Purchase amount(Currency)
+- Reason for purchase
+- Purchase content and specific requirements
+- Full name of supplier
+- Req. Dept. Manager
+- Req. Dept. Supervising vice-general manager</t>
+  </si>
+  <si>
+    <t>TC-004: To verify that the request can be created and submitted when the Req. Dept. Manager and Req. Dept. Supervising Vice-General Manager are the same person.</t>
+  </si>
+  <si>
+    <t>Company: CASA
+Component
+E2ETesting type
+-Pre-condition
+- Requester = CASA
+- Source of expenses = Any
+- Approver = Same person.
+Teststep Description
+Requester
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+3. Enter all field on screen
+4. Enter the same person for Req. Dept. Manager and Req. Dept. Supervising vice-general manager
+5. Click Confirm Request
+6. Click Submit
+Approver
+7. Approver click approve
+Requester
+8. Check request status
+9. Check Remark of approval field
+10. Check PDF file
+Expected Result
+3. The system able to select the Req. Dept. Manager and Req. Dept. Supervising vice-general manager
+6. The system created the request and send to all approver
+7. The approver able to click approve for one time
+8. The request status should be changed to Approved
+9. The system should be shown the value in remark field
+10. The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-005 :  To verify that the request can be created and submitted when the Req. Dept. Manager and Req. Dept. Supervising Vice-General Manager are different individuals for each approver.</t>
+  </si>
+  <si>
+    <t>Company: CASA
+Component
+E2ETesting type
+-Pre-condition
+- Requester = CASA
+- Source of expenses = Any
+- Approver = Different individuals for each approver.
+Teststep Description
+Requester
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+3. Enter all field on screen
+4. Enter the Different individuals for each approver.
+6. Click Submit
+Approver
+7. Req. Dept. Manager click approve with reason
+8. Req. Dept. Supervising vice-general manager click approve with reason
+Requester
+9. Check request status
+10. Check Remark of approval field
+11. Check PDF file
+Expected Result
+3. The system able to select the Req. Dept. Manager and Req. Dept. Supervising vice-general manager
+6. The system created the request and send to all approver
+7. Req. Dept. Manager able to approve
+8. Req. Dept. Supervising vice-general manager  able to approve
+9. The request status should be changed to Approved
+10. The system should be shown the value in remark field
+11. The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-006 :  To verify that the request can be created and submitted when select more than one person for the Req. Dept. Manager and Req. Dept. Supervising Vice-General Manager.</t>
+  </si>
+  <si>
+    <t>Company: CASA
+Component
+E2ETesting type
+-Pre-condition
+- Requester = CASA
+- Source of expenses = Any
+- Approver = Morethan one person.
+Teststep Description
+Requester
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+3. Enter all field on screen
+4. Enter morethan one person for the Req. Dept. Manager and Req. Dept. Supervising Vice-General Manager.
+6. Click Submit
+Approver
+7. Req. Dept. Manager click approve with reason
+8. Req. Dept. Supervising vice-general manager click approve with reason
+Requester
+9. Check request status
+10. Check Remark of approval field
+11. Check PDF file
+Expected Result
+3. The system able to select the Req. Dept. Manager and Req. Dept. Supervising vice-general manager
+6. The system created the request and send to all approver
+7. All Req. Dept. Manager able to approve
+8. All Req. Dept. Supervising vice-general manager  able to approve
+9. The request status should be changed to Approved
+10. The system should be shown the value in remark field
+11. The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-007 :  To verify when Dept. Manager is reject the request.</t>
+  </si>
+  <si>
+    <t>Company: CASA
+Component
+ApprovalTesting type
+-Pre-condition
+- Requester = CASA
+- Source of expenses = Any
+- Approver = Any.
+Teststep Description
+Requester
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+3. Enter all field on screen
+4. Enter the Different individuals for each approver.
+6. Click Submit
+Approver
+7. Req. Dept. Manager click refuse with reason.
+8. Check request status
+9. Check Remark of approval field
+10. Check PDF file
+Expected Result
+3. The system able to select the Req. Dept. Manager and Req. Dept. Supervising vice-general manager
+6. The system created the request and send to all approver
+7. Req. Dept. Manager able to refuse
+8. The request status should be changed to Refused
+9. The system should be shown the value in remark field
+10. The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-008 :  To verify when Req. Dept. Supervising vice-general manager is reject.</t>
+  </si>
+  <si>
+    <t>Company: CASA
+Component
+ApprovalTesting type
+-Pre-condition
+- Requester = CASA
+- Source of expenses = Any
+- Approver = Any.
+Teststep Description
+Requester
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+3. Enter all field on screen
+4. Enter morethan one person for the Req. Dept. Manager and Req. Dept. Supervising Vice-General Manager.
+6. Click Submit
+Approver
+7. Req. Dept. Manager click approve with reason
+8. Req. Dept. Supervising vice-general manager click refused with reason
+Requester
+9. Check request status
+10. Check Remark of approval field
+11. Check PDF file
+Expected Result
+3. The system able to select the Req. Dept. Manager and Req. Dept. Supervising vice-general manager
+6. The system created the request and send to all approver
+7. All Req. Dept. Manager able to approve
+8. All Req. Dept. Supervising vice-general manager  able to refuse
+9. The request status should be changed to Refused
+10. The system should be shown the value in remark field
+11. The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-009 :  To verify the information on PDF in case of all approver is approve</t>
+  </si>
+  <si>
+    <t>Company: CASA
+Component
+PDFTesting type
+-Pre-condition
+- Requester = CASA
+- Source of expenses = Any
+- Approver = Any.
+Teststep Description
+To verify the information on PDF in case of all approver is approve
+Expected Result
+The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-010 :  To verify the information on PDF in case of all approver is refect</t>
+  </si>
+  <si>
+    <t>Company: CASA
+Component
+PDFTesting type
+-Pre-condition
+- Requester = CASA
+- Source of expenses = Any
+- Approver = Any.
+Teststep Description
+To verify the information on PDF in case of all approver is refect
+Expected Result
+The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-011 :  To verify that the Minor Purchase screen is accessible.</t>
+  </si>
+  <si>
+    <t>Company: CAST
+Component
+Validate formTesting type
+-Pre-condition
+- Requester = CAST
+Teststep Description
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+Expected Result
+2. Able to access the Minor Purchase screen.</t>
+  </si>
+  <si>
+    <t>TC-012 :  To verify that the system is able to autofill the Req. Dept., Date, Applicant on the screen</t>
+  </si>
+  <si>
+    <t>Company: CAST
+Component
+Validate formTesting type
+Pre-condition
+- Requester = CAST
+Teststep Description
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+Expected Result
+2. The system is able to autofill the Req. Dept., Applicant, and Source of Expenses based on the user profile.
+- Req.Dept
+- Date
+- Applicant</t>
+  </si>
+  <si>
+    <t>TC-013 :  To verify the error message when the requester does not enter any data after accessing the Minor Request screen.</t>
+  </si>
+  <si>
+    <t>Company: CAST
+Component
+Validate formTesting type
+Pre-condition
+- Requester = CAST
+Teststep Description
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+3. Click Confirm Request
+Expected Result
+3. The system not allow for continue and should display an error message for mandatory field.
+- Project Name
+- Purchase amount(Currency)
+- Reason for purchase
+- Purchase content and specific requirements
+- Full name of supplier
+- Req. Dept. Manager
+- Req. Dept. Supervising vice-general manager</t>
+  </si>
+  <si>
+    <t>TC-014 :  To verify that the request can be created and submitted when the Req. Dept. Manager and Req. Dept. Supervising Vice-General Manager are the same person.</t>
+  </si>
+  <si>
+    <t>Company: CAST
+Component
+E2ETesting type
+Pre-condition
+- Requester = CAST
+- Source of expenses = Any
+- Approver = Same person.
+Teststep Description
+Requester
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+3. Enter all field on screen
+4. Enter the same person for Req. Dept. Manager and Req. Dept. Supervising vice-general manager
+5. Click Confirm Request
+6. Click Submit
+Approver
+7. Approver click approve
+Requester
+8. Check request status
+9. Check Remark of approval field
+10. Check PDF file
+Expected Result
+3. The system able to select the Req. Dept. Manager and Req. Dept. Supervising vice-general manager
+6. The system created the request and send to all approver
+7. The approver able to click approve for one time
+8. The request status should be changed to Approved
+9. The system should be shown the value in remark field
+10. The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-015 :  To verify that the request can be created and submitted when the Req. Dept. Manager and Req. Dept. Supervising Vice-General Manager are different individuals for each approver.</t>
+  </si>
+  <si>
+    <t>Company: CAST
+Component
+E2ETesting type
+Pre-condition
+- Requester = CAST
+- Source of expenses = Any
+- Approver = Different individuals for each approver.
+Teststep Description
+Requester
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+3. Enter all field on screen
+4. Enter the Different individuals for each approver.
+6. Click Submit
+Approver
+7. Req. Dept. Manager click approve with reason
+8. Req. Dept. Supervising vice-general manager click approve with reason
+Requester
+9. Check request status
+10. Check Remark of approval field
+11. Check PDF file
+Expected Result
+3. The system able to select the Req. Dept. Manager and Req. Dept. Supervising vice-general manager
+6. The system created the request and send to all approver
+7. Req. Dept. Manager able to approve
+8. Req. Dept. Supervising vice-general manager  able to approve
+9. The request status should be changed to Approved
+10. The system should be shown the value in remark field
+11. The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-016 :  To verify that the request can be created and submitted when select more than one person for the Req. Dept. Manager and Req. Dept. Supervising Vice-General Manager.</t>
+  </si>
+  <si>
+    <t>Company: CAST
+Component
+E2ETesting type
+Pre-condition
+- Requester = CAST
+- Source of expenses = Any
+- Approver = Morethan one person.
+Teststep Description
+Requester
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+3. Enter all field on screen
+4. Enter morethan one person for the Req. Dept. Manager and Req. Dept. Supervising Vice-General Manager.
+6. Click Submit
+Approver
+7. Req. Dept. Manager click approve with reason
+8. Req. Dept. Supervising vice-general manager click approve with reason
+Requester
+9. Check request status
+10. Check Remark of approval field
+11. Check PDF file
+Expected Result
+3. The system able to select the Req. Dept. Manager and Req. Dept. Supervising vice-general manager
+6. The system created the request and send to all approver
+7. All Req. Dept. Manager able to approve
+8. All Req. Dept. Supervising vice-general manager  able to approve
+9. The request status should be changed to Approved
+10. The system should be shown the value in remark field
+11. The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-017 :  To verify when Dept. Manager is reject the request.</t>
+  </si>
+  <si>
+    <t>Company: CAST
+Component
+ApprovalTesting type
+Pre-condition
+- Requester = CAST
+- Source of expenses = Any
+- Approver = Any.
+Teststep Description
+Requester
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+3. Enter all field on screen
+4. Enter the Different individuals for each approver.
+6. Click Submit
+Approver
+7. Req. Dept. Manager click refuse with reason.
+8. Check request status
+9. Check Remark of approval field
+10. Check PDF file
+Expected Result
+3. The system able to select the Req. Dept. Manager and Req. Dept. Supervising vice-general manager
+6. The system created the request and send to all approver
+7. Req. Dept. Manager able to refuse
+8. The request status should be changed to Refused
+9. The system should be shown the value in remark field
+10. The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-018 :  To verify when Req. Dept. Supervising vice-general manager is reject.</t>
+  </si>
+  <si>
+    <t>Company: CAST
+Component
+ApprovalTesting type
+Pre-condition
+- Requester = CAST
+- Source of expenses = Any
+- Approver = Any.
+Teststep Description
+Requester
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+3. Enter all field on screen
+4. Enter morethan one person for the Req. Dept. Manager and Req. Dept. Supervising Vice-General Manager.
+6. Click Submit
+Approver
+7. Req. Dept. Manager click approve with reason
+8. Req. Dept. Supervising vice-general manager click refused with reason
+Requester
+9. Check request status
+10. Check Remark of approval field
+11. Check PDF file
+Expected Result
+3. The system able to select the Req. Dept. Manager and Req. Dept. Supervising vice-general manager
+6. The system created the request and send to all approver
+7. All Req. Dept. Manager able to approve
+8. All Req. Dept. Supervising vice-general manager  able to refuse
+9. The request status should be changed to Refused
+10. The system should be shown the value in remark field
+11. The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-019 :  To verify the information on PDF in case of all approver is approve</t>
+  </si>
+  <si>
+    <t>Company: CAST
+Component
+PDFTesting type
+Pre-condition
+- Requester = CAST
+- Source of expenses = Any
+- Approver = Any.
+Teststep Description
+To verify the information on PDF in case of all approver is approve
+Expected Result
+The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-020 :  To verify the information on PDF in case of all approver is refect</t>
+  </si>
+  <si>
+    <t>Company: CAST
+Component
+PDFTesting type
+Pre-condition
+- Requester = CAST
+- Source of expenses = Any
+- Approver = Any.
+Teststep Description
+To verify the information on PDF in case of all approver is refect
+Expected Result
+The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-021 :  To verify that the Minor Purchase screen is accessible.</t>
+  </si>
+  <si>
+    <t>Company: CACT
+Component
+Validate formTesting type
+-Pre-condition
+- Requester = CACT
+Teststep Description
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+Expected Result
+2. Able to access the Minor Purchase screen.</t>
+  </si>
+  <si>
+    <t>TC-022 :  To verify that the system is able to autofill the Req. Dept., Date, Applicant on the screen</t>
+  </si>
+  <si>
+    <t>Company: CACT
+Component
+Validate formTesting type
+Pre-condition
+- Requester = CACT
+Teststep Description
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+Expected Result
+2. The system is able to autofill the Req. Dept., Applicant, and Source of Expenses based on the user profile.
+- Req.Dept
+- Date
+- Applicant</t>
+  </si>
+  <si>
+    <t>TC-023 :  To verify the error message when the requester does not enter any data after accessing the Minor Request screen.</t>
+  </si>
+  <si>
+    <t>Company: CACT
+Component
+Validate formTesting type
+Pre-condition
+- Requester = CACT
+Teststep Description
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+3. Click Confirm Request
+Expected Result
+3. The system not allow for continue and should display an error message for mandatory field.
+- Project Name
+- Purchase amount(Currency)
+- Reason for purchase
+- Purchase content and specific requirements
+- Full name of supplier
+- Req. Dept. Manager
+- Req. Dept. Supervising vice-general manager</t>
+  </si>
+  <si>
+    <t>TC-024 :  To verify that the request can be created and submitted when the Req. Dept. Manager and Req. Dept. Supervising Vice-General Manager are the same person.</t>
+  </si>
+  <si>
+    <t>Company: CACT
+Component
+E2ETesting type
+Pre-condition
+- Requester = CACT
+- Source of expenses = Any
+- Approver = Same person.
+Teststep Description
+Requester
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+3. Enter all field on screen
+4. Enter the same person for Req. Dept. Manager and Req. Dept. Supervising vice-general manager
+5. Click Confirm Request
+6. Click Submit
+Approver
+7. Approver click approve
+Requester
+8. Check request status
+9. Check Remark of approval field
+10. Check PDF file
+Expected Result
+3. The system able to select the Req. Dept. Manager and Req. Dept. Supervising vice-general manager
+6. The system created the request and send to all approver
+7. The approver able to click approve for one time
+8. The request status should be changed to Approved
+9. The system should be shown the value in remark field
+10. The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-025 :  To verify that the request can be created and submitted when the Req. Dept. Manager and Req. Dept. Supervising Vice-General Manager are different individuals for each approver.</t>
+  </si>
+  <si>
+    <t>Company: CACT
+Component
+E2ETesting type
+Pre-condition
+- Requester = CACT
+- Source of expenses = Any
+- Approver = Different individuals for each approver.
+Teststep Description
+Requester
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+3. Enter all field on screen
+4. Enter the Different individuals for each approver.
+6. Click Submit
+Approver
+7. Req. Dept. Manager click approve with reason
+8. Req. Dept. Supervising vice-general manager click approve with reason
+Requester
+9. Check request status
+10. Check Remark of approval field
+11. Check PDF file
+Expected Result
+3. The system able to select the Req. Dept. Manager and Req. Dept. Supervising vice-general manager
+6. The system created the request and send to all approver
+7. Req. Dept. Manager able to approve
+8. Req. Dept. Supervising vice-general manager  able to approve
+9. The request status should be changed to Approved
+10. The system should be shown the value in remark field
+11. The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-026 :  To verify that the request can be created and submitted when select more than one person for the Req. Dept. Manager and Req. Dept. Supervising Vice-General Manager.</t>
+  </si>
+  <si>
+    <t>Company: CACT
+Component
+E2ETesting type
+Pre-condition
+- Requester = CACT
+- Source of expenses = Any
+- Approver = Morethan one person.
+Teststep Description
+Requester
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+3. Enter all field on screen
+4. Enter morethan one person for the Req. Dept. Manager and Req. Dept. Supervising Vice-General Manager.
+6. Click Submit
+Approver
+7. Req. Dept. Manager click approve with reason
+8. Req. Dept. Supervising vice-general manager click approve with reason
+Requester
+9. Check request status
+10. Check Remark of approval field
+11. Check PDF file
+Expected Result
+3. The system able to select the Req. Dept. Manager and Req. Dept. Supervising vice-general manager
+6. The system created the request and send to all approver
+7. All Req. Dept. Manager able to approve
+8. All Req. Dept. Supervising vice-general manager  able to approve
+9. The request status should be changed to Approved
+10. The system should be shown the value in remark field
+11. The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-027 :  To verify when Dept. Manager is reject the request.</t>
+  </si>
+  <si>
+    <t>Company: CACT
+Component
+ApprovalTesting type
+Pre-condition
+- Requester = CACT
+- Source of expenses = Any
+- Approver = Morethan one person.
+Teststep Description
+Requester
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+3. Enter all field on screen
+4. Enter the Different individuals for each approver.
+6. Click Submit
+Approver
+7. Req. Dept. Manager click refuse with reason.
+8. Check request status
+9. Check Remark of approval field
+10. Check PDF file
+Expected Result
+3. The system able to select the Req. Dept. Manager and Req. Dept. Supervising vice-general manager
+6. The system created the request and send to all approver
+7. Req. Dept. Manager able to refuse
+8. The request status should be changed to Refused
+9. The system should be shown the value in remark field
+10. The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-028 :  To verify when Req. Dept. Supervising vice-general manager is reject.</t>
+  </si>
+  <si>
+    <t>Company: CACT
+Component
+ApprovalTesting type
+Pre-condition
+- Requester = CACT
+- Source of expenses = Any
+- Approver = Any.
+Teststep Description
+Requester
+1. Click Approval menu
+2. Click Create Requests of Minor Purchase menu
+3. Enter all field on screen
+4. Enter morethan one person for the Req. Dept. Manager and Req. Dept. Supervising Vice-General Manager.
+6. Click Submit
+Approver
+7. Req. Dept. Manager click approve with reason
+8. Req. Dept. Supervising vice-general manager click refused with reason
+Requester
+9. Check request status
+10. Check Remark of approval field
+11. Check PDF file
+Expected Result
+3. The system able to select the Req. Dept. Manager and Req. Dept. Supervising vice-general manager
+6. The system created the request and send to all approver
+7. All Req. Dept. Manager able to approve
+8. All Req. Dept. Supervising vice-general manager  able to refuse
+9. The request status should be changed to Refused
+10. The system should be shown the value in remark field
+11. The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-029 :  To verify the information on PDF in case of all approver is approve</t>
+  </si>
+  <si>
+    <t>Company: CACT
+Component
+PDFTesting type
+Pre-condition
+- Requester = CACT
+- Source of expenses = Any
+- Approver = Any.
+Teststep Description
+To verify the information on PDF in case of all approver is approve
+Expected Result
+The system should stamp the data on PDF correctly</t>
+  </si>
+  <si>
+    <t>TC-030 :  To verify the information on PDF in case of all approver is refect</t>
+  </si>
+  <si>
+    <t>Company: CACT
+Component
+PDFTesting type
+Pre-condition
+- Requester = CACT
+- Source of expenses = Any
+- Approver = Any.
+Teststep Description
+To verify the information on PDF in case of all approver is refect
+Expected Result
+The system should stamp the data on PDF correctly</t>
   </si>
   <si>
     <t>Teststep Description
@@ -880,7 +1544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -893,8 +1557,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1459,296 +2126,400 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" ht="299" spans="1:6">
+    <row r="2" ht="172.5" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="2"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" ht="322" spans="1:3">
+    <row r="3" ht="184" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" ht="287.5" spans="1:3">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" ht="230" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" ht="310.5" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" ht="368" spans="1:3">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" ht="368" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+    <row r="7" ht="379.5" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
+    <row r="8" ht="333.5" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
+    <row r="9" ht="379.5" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
+    <row r="10" ht="149.5" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+    <row r="11" ht="149.5" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
+    <row r="12" ht="138" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+    <row r="13" ht="184" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
+    <row r="14" ht="230" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+    <row r="15" ht="368" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
+    <row r="16" ht="368" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+    <row r="17" ht="379.5" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
+    <row r="18" ht="333.5" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+    <row r="19" ht="379.5" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
+    <row r="20" ht="149.5" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+    <row r="21" ht="149.5" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
+    <row r="22" ht="138" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
+    <row r="23" ht="184" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
+    <row r="24" ht="230" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
+    <row r="25" ht="368" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+    <row r="26" ht="368" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+    <row r="27" ht="379.5" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
+    <row r="28" ht="333.5" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
+    <row r="29" ht="379.5" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+    <row r="30" ht="149.5" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+    <row r="31" ht="149.5" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="6"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="6"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="1"/>
     </row>
   </sheetData>
@@ -1768,118 +2539,109 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" ht="184" spans="1:2">
+    <row r="1" ht="409.5" spans="1:2">
       <c r="A1" s="1" t="str" cm="1">
         <f ca="1" t="array" ref="A1">_xlfn.TEXTJOIN("",TRUE,IF(ISNUMBER(FIND(MID(Sheet1!B2,ROW(INDIRECT("1:"&amp;LEN(Sheet1!B2))),1),"0123456789.")),"-",MID(Sheet1!B2,ROW(INDIRECT("1:"&amp;LEN(Sheet1!B2))),1)))</f>
-        <v>Pre-condition
-- Existing OT(Current Period ----) in Approved status and Request type = Compensatory Leave-
-Teststep Description
-HR
--- Click Time Off menu
--- Click Mass Leaves Allocation
--- Click Allocate Compensatory Leave
--- Click Add a line for select the employee
--- Click Allocate Compensatory Leave
-Employee, OT requester
--- Click ESS menu-
--- Click Leave Request-
--- Click New
--- Verify Time Off Type * Compensatory leave
-Expected Result
-HR
--- The system will show the list of employees with OT in Approved status and Request type = Compensatory Leave-
--- The system will create a new Mass Leave Allocation named Compensatory Leave -----
-Employee, OT requester
--- The total value of Compensatory Leave is updated depending on OT hours-</v>
+        <v>Company: CASA
+Main scope
+- Minor Purchase
+Component
+Validate form
+Testing type
+-
+Pre-condition
+- Requester = CASA
+Teststep Description
+-- Click Approval menu
+-- Click Create Requests of Minor Purchase menu
+Expected Result
+-- Able to access the Minor Purchase screen-</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" ht="184" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:2">
       <c r="A2" s="1" t="str" cm="1">
         <f ca="1" t="array" ref="A2">_xlfn.TEXTJOIN("",TRUE,IF(ISNUMBER(FIND(MID(Sheet1!B3,ROW(INDIRECT("1:"&amp;LEN(Sheet1!B3))),1),"0123456789.")),"-",MID(Sheet1!B3,ROW(INDIRECT("1:"&amp;LEN(Sheet1!B3))),1)))</f>
-        <v>Pre-condition
-- Existing OT(Current Period ----) in Approved status and Request type = Compensatory Leave-
-- Need to continue from TC----
-Teststep Description
-HR process in secon time continue from TC----
--- Click Time Off menu
--- Click Mass Leaves Allocation
--- Click Allocate Compensatory Leave
--- Click Add a line for select the employee
--- Click Allocate Compensatory Leave
-Employee, OT requester
--- Click ESS menu-
--- Click Leave Request-
--- Click New
--- Verify Time Off Type * Compensatory leave
-Expected Result
-HR
--- The system will show the list of employees with OT in Approved status and Request type = Compensatory Leave-
--- The system will not create a new Mass Leave Allocation- The system will add name into existing Mass Leave Allocation(Compensatory Leave ----)-
-Employee, OT requester
--- The total value of Compensatory Leave is updated depending on OT hours-</v>
+        <v>Company: CASA
+Component
+Validate formTesting type
+-Pre-condition
+- Requester = CASA
+Teststep Description
+-- Click Approval menu
+-- Click Create Requests of Minor Purchase menu
+Expected Result
+-- The system is able to autofill the Req- Dept-, Applicant, and Source of Expenses based on the user profile-
+- Req-Dept
+- Date
+- Applicant</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="392" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" ht="409.5" spans="1:2">
       <c r="A3" s="1" t="str" cm="1">
         <f ca="1" t="array" ref="A3">_xlfn.TEXTJOIN("",TRUE,IF(ISNUMBER(FIND(MID(Sheet1!B4,ROW(INDIRECT("1:"&amp;LEN(Sheet1!B4))),1),"0123456789.")),"-",MID(Sheet1!B4,ROW(INDIRECT("1:"&amp;LEN(Sheet1!B4))),1)))</f>
-        <v>Pre-condition
-- Existing OT(Future Period ----) in Approved status and Request type = Compensatory Leave-
-Teststep Description
-HR
--- Click Time Off menu
--- Click Mass Leaves Allocation
--- Click Allocate Compensatory Leave
--- Click Add a line for select the employee
--- Click Allocate Compensatory Leave
-Employee, OT requester
--- Click ESS menu-
--- Click Leave Request-
--- Click New
--- Verify Time Off Type * Compensatory leave
-Expected Result
-HR
--- The system will show the list of employees with OT in Approved status and Request type = Compensatory Leave-
--- The system will create a new Mass Leave Allocation named Compensatory Leave -----
-Employee, OT requester
--- The total value of Compensatory Leave is updated depending on OT hours-</v>
+        <v>Company: CASA
+Component
+Validate formTesting type
+-Pre-condition
+- Requester = CASA
+Teststep Description
+-- Click Approval menu
+-- Click Create Requests of Minor Purchase menu
+-- Click Confirm Request
+Expected Result
+-- The system not allow for continue and should display an error message for mandatory field-
+- Project Name
+- Purchase amount(Currency)
+- Reason for purchase
+- Purchase content and specific requirements
+- Full name of supplier
+- Req- Dept- Manager
+- Req- Dept- Supervising vice-general manager</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:2">
       <c r="A4" s="1" t="str" cm="1">
         <f ca="1" t="array" ref="A4">_xlfn.TEXTJOIN("",TRUE,IF(ISNUMBER(FIND(MID(Sheet1!B5,ROW(INDIRECT("1:"&amp;LEN(Sheet1!B5))),1),"0123456789.")),"-",MID(Sheet1!B5,ROW(INDIRECT("1:"&amp;LEN(Sheet1!B5))),1)))</f>
-        <v>Pre-condition
-- Existing OT(Future Period ----) in Approved status and Request type = Compensatory Leave-
-- Need to continue from TC----
-Teststep Description
-HR process in secon time continue from TC----
--- Click Time Off menu
--- Click Mass Leaves Allocation
--- Click Allocate Compensatory Leave
--- Click Add a line for select the employee
--- Click Allocate Compensatory Leave
-Employee, OT requester
--- Click ESS menu-
--- Click Leave Request-
--- Click New
--- Verify Time Off Type * Compensatory leave
-Expected Result
-HR
--- The system will show the list of employees with OT in Approved status and Request type = Compensatory Leave-
--- The system will not create a new Mass Leave Allocation- The system will add name into existing Mass Leave Allocation(Compensatory Leave ----)-
-Employee, OT requester
--- The total value of Compensatory Leave is updated depending on OT hours-</v>
+        <v>Company: CASA
+Component
+E-ETesting type
+-Pre-condition
+- Requester = CASA
+- Source of expenses = Any
+- Approver = Same person-
+Teststep Description
+Requester
+-- Click Approval menu
+-- Click Create Requests of Minor Purchase menu
+-- Enter all field on screen
+-- Enter the same person for Req- Dept- Manager and Req- Dept- Supervising vice-general manager
+-- Click Confirm Request
+-- Click Submit
+Approver
+-- Approver click approve
+Requester
+-- Check request status
+-- Check Remark of approval field
+--- Check PDF file
+Expected Result
+-- The system able to select the Req- Dept- Manager and Req- Dept- Supervising vice-general manager
+-- The system created the request and send to all approver
+-- The approver able to click approve for one time
+-- The request status should be changed to Approved
+-- The system should be shown the value in remark field
+--- The system should stamp the data on PDF correctly</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="409.5" spans="1:2">
@@ -1888,7 +2650,7 @@
         <v>#REF!</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="409.5" spans="1:2">
@@ -1897,7 +2659,7 @@
         <v>#REF!</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="409.5" spans="1:2">
@@ -1906,7 +2668,7 @@
         <v>#REF!</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" ht="409.5" spans="1:2">
@@ -1915,7 +2677,7 @@
         <v>#REF!</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" ht="409.5" spans="1:2">
@@ -1924,7 +2686,7 @@
         <v>#REF!</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" ht="409.5" spans="1:2">
@@ -1933,7 +2695,7 @@
         <v>#REF!</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" ht="409.5" spans="1:2">
@@ -1942,7 +2704,7 @@
         <v>#REF!</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" ht="409.5" spans="1:2">
@@ -1951,7 +2713,7 @@
         <v>#REF!</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
